--- a/Re-admission 2021-2022.xlsx
+++ b/Re-admission 2021-2022.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\UNDERGRADUATE\2021-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6AC0B8AF-C1AE-4F7B-BB90-AAD09E727BAB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12825" windowHeight="9900" xr2:uid="{7D568DDB-E0B3-42D7-A616-7520E4BAD752}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Floor Plan sem 2'!$A$1:$AD$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$145</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Floor Plan sem 2'!$A$1:$AF$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="708">
   <si>
     <t>Floor</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -3993,21 +3992,66 @@
     <t>Residence year 21-22</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>Interview?</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>GPA &lt; 2.5</t>
+  </si>
+  <si>
+    <t>Diciplinary Records</t>
+  </si>
+  <si>
+    <t>Behavioral Issues</t>
+  </si>
+  <si>
+    <t>Diciplinary Record</t>
+  </si>
+  <si>
+    <t>Coming Back from Military Service</t>
+  </si>
+  <si>
+    <t>Not in Hong Kong/living in St. John's in 2020-21?</t>
+  </si>
+  <si>
+    <t>Not in Hong Kong/living in St. John's in 2020-21</t>
+  </si>
+  <si>
+    <t>cGPA &lt; 2.5, considering reapplying JUPAS</t>
+  </si>
+  <si>
+    <t>cGPA &lt; 2.5</t>
+  </si>
+  <si>
+    <t>Apply to WCT</t>
+  </si>
+  <si>
+    <t>Indicate interests to stay in WCT</t>
+  </si>
+  <si>
+    <t>Applied for Career/Adcamic  Advisor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_(&quot;HK$&quot;* #,##0.00_);_(&quot;HK$&quot;* \(#,##0.00\);_(&quot;HK$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;HK$&quot;* #,##0.00_);_(&quot;HK$&quot;* \(#,##0.00\);_(&quot;HK$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4015,7 +4059,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4028,7 +4072,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4133,7 +4177,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4315,8 +4359,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
@@ -4489,7 +4533,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
@@ -4770,96 +4814,96 @@
     </xf>
   </cellXfs>
   <cellStyles count="90">
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Comma 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Currency 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Hyperlink 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Comma 3" xfId="88"/>
+    <cellStyle name="Currency 2" xfId="4"/>
+    <cellStyle name="Hyperlink 2" xfId="87"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="26" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 11" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 12" xfId="24" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 13" xfId="40" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 14" xfId="20" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal 15" xfId="16" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Normal 16" xfId="36" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Normal 17" xfId="18" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Normal 18" xfId="28" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Normal 19" xfId="27" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Normal 2 10" xfId="47" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Normal 2 11" xfId="48" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Normal 2 12" xfId="49" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Normal 2 13" xfId="50" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Normal 2 14" xfId="51" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Normal 2 15" xfId="52" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Normal 2 16" xfId="53" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Normal 2 17" xfId="54" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Normal 2 18" xfId="55" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Normal 2 19" xfId="56" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{39157BEC-0563-41D0-8477-8B24A27664DA}"/>
-    <cellStyle name="Normal 2 20" xfId="57" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Normal 2 21" xfId="58" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Normal 2 22" xfId="59" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Normal 2 23" xfId="60" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Normal 2 24" xfId="61" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Normal 2 25" xfId="62" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Normal 2 26" xfId="63" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Normal 2 27" xfId="64" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Normal 2 28" xfId="65" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Normal 2 29" xfId="66" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Normal 2 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Normal 2 30" xfId="68" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Normal 2 31" xfId="69" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Normal 2 32" xfId="70" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Normal 2 33" xfId="71" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Normal 2 34" xfId="72" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Normal 2 35" xfId="73" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Normal 2 36" xfId="74" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Normal 2 37" xfId="75" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Normal 2 38" xfId="76" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Normal 2 39" xfId="77" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Normal 2 4" xfId="78" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Normal 2 40" xfId="79" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Normal 2 41" xfId="80" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Normal 2 42" xfId="89" xr:uid="{03708F94-18F6-495E-B78D-E3E24EDF7617}"/>
-    <cellStyle name="Normal 2 5" xfId="81" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Normal 2 6" xfId="82" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Normal 2 7" xfId="83" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Normal 2 8" xfId="84" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Normal 2 9" xfId="85" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Normal 20" xfId="43" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Normal 21" xfId="33" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Normal 22" xfId="21" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Normal 23" xfId="10" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Normal 24" xfId="9" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Normal 25" xfId="45" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Normal 26" xfId="42" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Normal 27" xfId="19" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Normal 28" xfId="11" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Normal 29" xfId="23" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Normal 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="Normal 30" xfId="46" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Normal 31" xfId="37" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Normal 32" xfId="30" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Normal 33" xfId="34" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Normal 34" xfId="44" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="Normal 35" xfId="38" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Normal 36" xfId="17" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Normal 37" xfId="25" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Normal 38" xfId="41" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 39" xfId="14" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Normal 4" xfId="7" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Normal 40" xfId="13" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Normal 41" xfId="32" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal 42" xfId="15" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 43" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 5" xfId="22" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 6" xfId="39" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 7" xfId="29" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 8" xfId="12" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 9" xfId="31" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="一般 2" xfId="2" xr:uid="{5018758A-EB42-41ED-B3EB-75B60EE26EB7}"/>
+    <cellStyle name="Normal 10" xfId="26"/>
+    <cellStyle name="Normal 11" xfId="8"/>
+    <cellStyle name="Normal 12" xfId="24"/>
+    <cellStyle name="Normal 13" xfId="40"/>
+    <cellStyle name="Normal 14" xfId="20"/>
+    <cellStyle name="Normal 15" xfId="16"/>
+    <cellStyle name="Normal 16" xfId="36"/>
+    <cellStyle name="Normal 17" xfId="18"/>
+    <cellStyle name="Normal 18" xfId="28"/>
+    <cellStyle name="Normal 19" xfId="27"/>
+    <cellStyle name="Normal 2" xfId="5"/>
+    <cellStyle name="Normal 2 10" xfId="47"/>
+    <cellStyle name="Normal 2 11" xfId="48"/>
+    <cellStyle name="Normal 2 12" xfId="49"/>
+    <cellStyle name="Normal 2 13" xfId="50"/>
+    <cellStyle name="Normal 2 14" xfId="51"/>
+    <cellStyle name="Normal 2 15" xfId="52"/>
+    <cellStyle name="Normal 2 16" xfId="53"/>
+    <cellStyle name="Normal 2 17" xfId="54"/>
+    <cellStyle name="Normal 2 18" xfId="55"/>
+    <cellStyle name="Normal 2 19" xfId="56"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2 20" xfId="57"/>
+    <cellStyle name="Normal 2 21" xfId="58"/>
+    <cellStyle name="Normal 2 22" xfId="59"/>
+    <cellStyle name="Normal 2 23" xfId="60"/>
+    <cellStyle name="Normal 2 24" xfId="61"/>
+    <cellStyle name="Normal 2 25" xfId="62"/>
+    <cellStyle name="Normal 2 26" xfId="63"/>
+    <cellStyle name="Normal 2 27" xfId="64"/>
+    <cellStyle name="Normal 2 28" xfId="65"/>
+    <cellStyle name="Normal 2 29" xfId="66"/>
+    <cellStyle name="Normal 2 3" xfId="67"/>
+    <cellStyle name="Normal 2 30" xfId="68"/>
+    <cellStyle name="Normal 2 31" xfId="69"/>
+    <cellStyle name="Normal 2 32" xfId="70"/>
+    <cellStyle name="Normal 2 33" xfId="71"/>
+    <cellStyle name="Normal 2 34" xfId="72"/>
+    <cellStyle name="Normal 2 35" xfId="73"/>
+    <cellStyle name="Normal 2 36" xfId="74"/>
+    <cellStyle name="Normal 2 37" xfId="75"/>
+    <cellStyle name="Normal 2 38" xfId="76"/>
+    <cellStyle name="Normal 2 39" xfId="77"/>
+    <cellStyle name="Normal 2 4" xfId="78"/>
+    <cellStyle name="Normal 2 40" xfId="79"/>
+    <cellStyle name="Normal 2 41" xfId="80"/>
+    <cellStyle name="Normal 2 42" xfId="89"/>
+    <cellStyle name="Normal 2 5" xfId="81"/>
+    <cellStyle name="Normal 2 6" xfId="82"/>
+    <cellStyle name="Normal 2 7" xfId="83"/>
+    <cellStyle name="Normal 2 8" xfId="84"/>
+    <cellStyle name="Normal 2 9" xfId="85"/>
+    <cellStyle name="Normal 20" xfId="43"/>
+    <cellStyle name="Normal 21" xfId="33"/>
+    <cellStyle name="Normal 22" xfId="21"/>
+    <cellStyle name="Normal 23" xfId="10"/>
+    <cellStyle name="Normal 24" xfId="9"/>
+    <cellStyle name="Normal 25" xfId="45"/>
+    <cellStyle name="Normal 26" xfId="42"/>
+    <cellStyle name="Normal 27" xfId="19"/>
+    <cellStyle name="Normal 28" xfId="11"/>
+    <cellStyle name="Normal 29" xfId="23"/>
+    <cellStyle name="Normal 3" xfId="6"/>
+    <cellStyle name="Normal 3 2" xfId="86"/>
+    <cellStyle name="Normal 30" xfId="46"/>
+    <cellStyle name="Normal 31" xfId="37"/>
+    <cellStyle name="Normal 32" xfId="30"/>
+    <cellStyle name="Normal 33" xfId="34"/>
+    <cellStyle name="Normal 34" xfId="44"/>
+    <cellStyle name="Normal 35" xfId="38"/>
+    <cellStyle name="Normal 36" xfId="17"/>
+    <cellStyle name="Normal 37" xfId="25"/>
+    <cellStyle name="Normal 38" xfId="41"/>
+    <cellStyle name="Normal 39" xfId="14"/>
+    <cellStyle name="Normal 4" xfId="7"/>
+    <cellStyle name="Normal 40" xfId="13"/>
+    <cellStyle name="Normal 41" xfId="32"/>
+    <cellStyle name="Normal 42" xfId="15"/>
+    <cellStyle name="Normal 43" xfId="35"/>
+    <cellStyle name="Normal 5" xfId="22"/>
+    <cellStyle name="Normal 6" xfId="39"/>
+    <cellStyle name="Normal 7" xfId="29"/>
+    <cellStyle name="Normal 8" xfId="12"/>
+    <cellStyle name="Normal 9" xfId="31"/>
+    <cellStyle name="一般 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5179,15 +5223,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D1D794-F80B-44C9-B508-D1D541AFF9D2}">
-  <dimension ref="A1:O238"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J194" sqref="J194"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M205" sqref="M205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="22"/>
     <col min="2" max="2" width="38.7109375" style="22" bestFit="1" customWidth="1"/>
@@ -5200,14 +5244,14 @@
     <col min="9" max="9" width="11.42578125" style="22" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" style="22" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="25"/>
-    <col min="13" max="13" width="12.28515625" style="22" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="22"/>
-    <col min="15" max="15" width="46.5703125" style="22" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="22"/>
+    <col min="12" max="13" width="9.140625" style="25"/>
+    <col min="14" max="14" width="12.28515625" style="22" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="22"/>
+    <col min="16" max="16" width="46.5703125" style="22" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5245,16 +5289,19 @@
         <v>10</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="5" t="s">
         <v>422</v>
       </c>
@@ -5289,11 +5336,14 @@
       <c r="L2" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M2" s="24"/>
+      <c r="M2" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N2" s="24"/>
       <c r="O2" s="24"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="24"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="5" t="s">
         <v>422</v>
       </c>
@@ -5328,11 +5378,14 @@
       <c r="L3" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M3" s="24"/>
+      <c r="M3" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N3" s="24"/>
       <c r="O3" s="24"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="24"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="5" t="s">
         <v>422</v>
       </c>
@@ -5367,11 +5420,14 @@
       <c r="L4" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M4" s="24"/>
+      <c r="M4" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="24"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="5" t="s">
         <v>422</v>
       </c>
@@ -5406,11 +5462,14 @@
       <c r="L5" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M5" s="24"/>
+      <c r="M5" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N5" s="24"/>
       <c r="O5" s="24"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" s="24"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="5" t="s">
         <v>422</v>
       </c>
@@ -5443,11 +5502,14 @@
       <c r="L6" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M6" s="24"/>
+      <c r="M6" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N6" s="24"/>
       <c r="O6" s="24"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" s="24"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="5" t="s">
         <v>422</v>
       </c>
@@ -5482,11 +5544,14 @@
       <c r="L7" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M7" s="24"/>
+      <c r="M7" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N7" s="24"/>
       <c r="O7" s="24"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" s="24"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="5" t="s">
         <v>422</v>
       </c>
@@ -5521,11 +5586,16 @@
       <c r="L8" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M8" s="24"/>
+      <c r="M8" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="24" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="5" t="s">
         <v>422</v>
       </c>
@@ -5558,11 +5628,14 @@
       <c r="L9" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M9" s="24"/>
+      <c r="M9" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" s="24"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="5" t="s">
         <v>422</v>
       </c>
@@ -5595,11 +5668,14 @@
       <c r="L10" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M10" s="24"/>
+      <c r="M10" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" s="24"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="5" t="s">
         <v>422</v>
       </c>
@@ -5636,11 +5712,16 @@
       <c r="L11" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M11" s="24"/>
+      <c r="M11" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" s="24" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="5" t="s">
         <v>422</v>
       </c>
@@ -5675,11 +5756,14 @@
       <c r="L12" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M12" s="24"/>
+      <c r="M12" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" s="24"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="5" t="s">
         <v>422</v>
       </c>
@@ -5714,11 +5798,14 @@
       <c r="L13" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M13" s="24"/>
+      <c r="M13" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="24"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="5" t="s">
         <v>422</v>
       </c>
@@ -5753,11 +5840,14 @@
       <c r="L14" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M14" s="24"/>
+      <c r="M14" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14" s="24"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="5" t="s">
         <v>422</v>
       </c>
@@ -5792,11 +5882,14 @@
       <c r="L15" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M15" s="24"/>
+      <c r="M15" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15" s="24"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="5" t="s">
         <v>424</v>
       </c>
@@ -5831,11 +5924,14 @@
       <c r="L16" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M16" s="24"/>
+      <c r="M16" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16" s="24"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="5" t="s">
         <v>424</v>
       </c>
@@ -5870,11 +5966,14 @@
       <c r="L17" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M17" s="24"/>
+      <c r="M17" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17" s="24"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="5" t="s">
         <v>424</v>
       </c>
@@ -5907,11 +6006,14 @@
       <c r="L18" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M18" s="24"/>
+      <c r="M18" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18" s="24"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="5" t="s">
         <v>424</v>
       </c>
@@ -5946,11 +6048,14 @@
       <c r="L19" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M19" s="24"/>
+      <c r="M19" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19" s="24"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="5" t="s">
         <v>424</v>
       </c>
@@ -5985,11 +6090,14 @@
       <c r="L20" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M20" s="24"/>
+      <c r="M20" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20" s="24"/>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="5" t="s">
         <v>424</v>
       </c>
@@ -6024,11 +6132,14 @@
       <c r="L21" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M21" s="24"/>
+      <c r="M21" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21" s="24"/>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="5" t="s">
         <v>424</v>
       </c>
@@ -6065,11 +6176,16 @@
       <c r="L22" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M22" s="24"/>
+      <c r="M22" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22" s="24" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="5" t="s">
         <v>424</v>
       </c>
@@ -6102,11 +6218,16 @@
       <c r="L23" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M23" s="24"/>
+      <c r="M23" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23" s="24" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="5" t="s">
         <v>424</v>
       </c>
@@ -6143,11 +6264,16 @@
       <c r="L24" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M24" s="24"/>
+      <c r="M24" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24" s="24" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="5" t="s">
         <v>424</v>
       </c>
@@ -6180,11 +6306,14 @@
       <c r="L25" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M25" s="24"/>
+      <c r="M25" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25" s="24"/>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="5" t="s">
         <v>424</v>
       </c>
@@ -6219,11 +6348,14 @@
       <c r="L26" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M26" s="24"/>
+      <c r="M26" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26" s="24"/>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="5" t="s">
         <v>424</v>
       </c>
@@ -6258,11 +6390,14 @@
       <c r="L27" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M27" s="24"/>
+      <c r="M27" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27" s="24"/>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="5" t="s">
         <v>424</v>
       </c>
@@ -6297,11 +6432,14 @@
       <c r="L28" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M28" s="24"/>
+      <c r="M28" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N28" s="24"/>
       <c r="O28" s="24"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28" s="24"/>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="5" t="s">
         <v>424</v>
       </c>
@@ -6338,11 +6476,14 @@
       <c r="L29" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M29" s="24"/>
+      <c r="M29" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N29" s="24"/>
       <c r="O29" s="24"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29" s="24"/>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="5" t="s">
         <v>411</v>
       </c>
@@ -6375,11 +6516,14 @@
       <c r="L30" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M30" s="24"/>
+      <c r="M30" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N30" s="24"/>
       <c r="O30" s="24"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30" s="24"/>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="5" t="s">
         <v>411</v>
       </c>
@@ -6412,11 +6556,14 @@
       <c r="L31" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M31" s="24"/>
+      <c r="M31" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N31" s="24"/>
       <c r="O31" s="24"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31" s="24"/>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="5" t="s">
         <v>411</v>
       </c>
@@ -6453,11 +6600,14 @@
       <c r="L32" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M32" s="24"/>
+      <c r="M32" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N32" s="24"/>
       <c r="O32" s="24"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32" s="24"/>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="5" t="s">
         <v>411</v>
       </c>
@@ -6492,11 +6642,14 @@
       <c r="L33" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M33" s="24"/>
+      <c r="M33" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N33" s="24"/>
       <c r="O33" s="24"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33" s="24"/>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="5" t="s">
         <v>411</v>
       </c>
@@ -6531,11 +6684,14 @@
       <c r="L34" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M34" s="24"/>
+      <c r="M34" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N34" s="24"/>
       <c r="O34" s="24"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34" s="24"/>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="23" t="s">
         <v>411</v>
       </c>
@@ -6562,11 +6718,14 @@
       <c r="L35" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M35" s="24"/>
+      <c r="M35" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N35" s="24"/>
       <c r="O35" s="24"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35" s="24"/>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="5" t="s">
         <v>416</v>
       </c>
@@ -6601,11 +6760,14 @@
       <c r="L36" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M36" s="24"/>
+      <c r="M36" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N36" s="24"/>
       <c r="O36" s="24"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P36" s="24"/>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="5" t="s">
         <v>416</v>
       </c>
@@ -6640,11 +6802,14 @@
       <c r="L37" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M37" s="24"/>
+      <c r="M37" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N37" s="24"/>
       <c r="O37" s="24"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P37" s="24"/>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="5" t="s">
         <v>416</v>
       </c>
@@ -6679,11 +6844,14 @@
       <c r="L38" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M38" s="24"/>
+      <c r="M38" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N38" s="24"/>
       <c r="O38" s="24"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P38" s="24"/>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="5" t="s">
         <v>416</v>
       </c>
@@ -6716,11 +6884,14 @@
       <c r="L39" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M39" s="24"/>
+      <c r="M39" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N39" s="24"/>
       <c r="O39" s="24"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P39" s="24"/>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="5" t="s">
         <v>416</v>
       </c>
@@ -6753,11 +6924,14 @@
       <c r="L40" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M40" s="24"/>
+      <c r="M40" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N40" s="24"/>
       <c r="O40" s="24"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P40" s="24"/>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="5" t="s">
         <v>416</v>
       </c>
@@ -6792,11 +6966,14 @@
       <c r="L41" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M41" s="24"/>
+      <c r="M41" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N41" s="24"/>
       <c r="O41" s="24"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41" s="24"/>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="5" t="s">
         <v>416</v>
       </c>
@@ -6831,11 +7008,14 @@
       <c r="L42" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M42" s="24"/>
+      <c r="M42" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N42" s="24"/>
       <c r="O42" s="24"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P42" s="24"/>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="5" t="s">
         <v>416</v>
       </c>
@@ -6868,11 +7048,14 @@
       <c r="L43" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M43" s="24"/>
+      <c r="M43" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N43" s="24"/>
       <c r="O43" s="24"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43" s="24"/>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="5" t="s">
         <v>416</v>
       </c>
@@ -6907,11 +7090,14 @@
       <c r="L44" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M44" s="24"/>
+      <c r="M44" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N44" s="24"/>
       <c r="O44" s="24"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44" s="24"/>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="5" t="s">
         <v>416</v>
       </c>
@@ -6946,11 +7132,14 @@
       <c r="L45" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M45" s="24"/>
+      <c r="M45" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N45" s="24"/>
       <c r="O45" s="24"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P45" s="24"/>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="23" t="s">
         <v>432</v>
       </c>
@@ -6977,13 +7166,16 @@
       <c r="L46" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M46" s="24"/>
+      <c r="M46" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N46" s="24"/>
-      <c r="O46" s="24" t="s">
+      <c r="O46" s="24"/>
+      <c r="P46" s="24" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="A47" s="5" t="s">
         <v>417</v>
       </c>
@@ -7016,11 +7208,16 @@
       <c r="L47" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M47" s="24"/>
+      <c r="M47" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N47" s="24"/>
       <c r="O47" s="24"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47" s="24" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="5" t="s">
         <v>417</v>
       </c>
@@ -7055,11 +7252,14 @@
       <c r="L48" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M48" s="24"/>
+      <c r="M48" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N48" s="24"/>
       <c r="O48" s="24"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P48" s="24"/>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="5" t="s">
         <v>417</v>
       </c>
@@ -7096,11 +7296,14 @@
       <c r="L49" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M49" s="24"/>
+      <c r="M49" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N49" s="24"/>
       <c r="O49" s="24"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P49" s="24"/>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="5" t="s">
         <v>417</v>
       </c>
@@ -7133,11 +7336,14 @@
       <c r="L50" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M50" s="24"/>
+      <c r="M50" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N50" s="24"/>
       <c r="O50" s="24"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P50" s="24"/>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="5" t="s">
         <v>417</v>
       </c>
@@ -7174,11 +7380,14 @@
       <c r="L51" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M51" s="24"/>
+      <c r="M51" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N51" s="24"/>
       <c r="O51" s="24"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P51" s="24"/>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="5" t="s">
         <v>417</v>
       </c>
@@ -7213,11 +7422,14 @@
       <c r="L52" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M52" s="24"/>
+      <c r="M52" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N52" s="24"/>
       <c r="O52" s="24"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P52" s="24"/>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="5" t="s">
         <v>417</v>
       </c>
@@ -7252,11 +7464,14 @@
       <c r="L53" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M53" s="24"/>
+      <c r="M53" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N53" s="24"/>
       <c r="O53" s="24"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P53" s="24"/>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="5" t="s">
         <v>417</v>
       </c>
@@ -7289,11 +7504,14 @@
       <c r="L54" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M54" s="24"/>
+      <c r="M54" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N54" s="24"/>
       <c r="O54" s="24"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P54" s="24"/>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" s="5" t="s">
         <v>417</v>
       </c>
@@ -7328,11 +7546,14 @@
       <c r="L55" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M55" s="24"/>
+      <c r="M55" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N55" s="24"/>
       <c r="O55" s="24"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P55" s="24"/>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="5" t="s">
         <v>417</v>
       </c>
@@ -7367,11 +7588,14 @@
       <c r="L56" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M56" s="24"/>
+      <c r="M56" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N56" s="24"/>
       <c r="O56" s="24"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P56" s="24"/>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" s="5" t="s">
         <v>417</v>
       </c>
@@ -7404,11 +7628,14 @@
       <c r="L57" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M57" s="24"/>
+      <c r="M57" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N57" s="24"/>
       <c r="O57" s="24"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P57" s="24"/>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" s="5" t="s">
         <v>417</v>
       </c>
@@ -7443,11 +7670,14 @@
       <c r="L58" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M58" s="24"/>
+      <c r="M58" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N58" s="24"/>
       <c r="O58" s="24"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P58" s="24"/>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" s="5" t="s">
         <v>417</v>
       </c>
@@ -7482,11 +7712,14 @@
       <c r="L59" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M59" s="24"/>
+      <c r="M59" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N59" s="24"/>
       <c r="O59" s="24"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P59" s="24"/>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="5" t="s">
         <v>417</v>
       </c>
@@ -7521,11 +7754,14 @@
       <c r="L60" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M60" s="24"/>
+      <c r="M60" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N60" s="24"/>
       <c r="O60" s="24"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P60" s="24"/>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" s="5" t="s">
         <v>417</v>
       </c>
@@ -7560,11 +7796,14 @@
       <c r="L61" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M61" s="24"/>
+      <c r="M61" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N61" s="24"/>
       <c r="O61" s="24"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P61" s="24"/>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="23" t="s">
         <v>431</v>
       </c>
@@ -7591,11 +7830,16 @@
       <c r="L62" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M62" s="24"/>
+      <c r="M62" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N62" s="24"/>
       <c r="O62" s="24"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P62" s="24" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="5" t="s">
         <v>418</v>
       </c>
@@ -7630,11 +7874,14 @@
       <c r="L63" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M63" s="24"/>
+      <c r="M63" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N63" s="24"/>
       <c r="O63" s="24"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P63" s="24"/>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="5" t="s">
         <v>418</v>
       </c>
@@ -7669,11 +7916,14 @@
       <c r="L64" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M64" s="24"/>
+      <c r="M64" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N64" s="24"/>
       <c r="O64" s="24"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P64" s="24"/>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="5" t="s">
         <v>418</v>
       </c>
@@ -7708,11 +7958,14 @@
       <c r="L65" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M65" s="24"/>
+      <c r="M65" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N65" s="24"/>
       <c r="O65" s="24"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P65" s="24"/>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="5" t="s">
         <v>418</v>
       </c>
@@ -7745,11 +7998,16 @@
       <c r="L66" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M66" s="24"/>
+      <c r="M66" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N66" s="24"/>
       <c r="O66" s="24"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P66" s="24" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="5" t="s">
         <v>418</v>
       </c>
@@ -7784,11 +8042,14 @@
       <c r="L67" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M67" s="24"/>
+      <c r="M67" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N67" s="24"/>
       <c r="O67" s="24"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P67" s="24"/>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="5" t="s">
         <v>418</v>
       </c>
@@ -7825,11 +8086,14 @@
       <c r="L68" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M68" s="24"/>
+      <c r="M68" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N68" s="24"/>
       <c r="O68" s="24"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P68" s="24"/>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="5" t="s">
         <v>418</v>
       </c>
@@ -7866,11 +8130,14 @@
       <c r="L69" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M69" s="24"/>
+      <c r="M69" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N69" s="24"/>
       <c r="O69" s="24"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P69" s="24"/>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="5" t="s">
         <v>418</v>
       </c>
@@ -7905,11 +8172,14 @@
       <c r="L70" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M70" s="24"/>
+      <c r="M70" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N70" s="24"/>
       <c r="O70" s="24"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P70" s="24"/>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" s="5" t="s">
         <v>418</v>
       </c>
@@ -7944,11 +8214,14 @@
       <c r="L71" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M71" s="24"/>
+      <c r="M71" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N71" s="24"/>
       <c r="O71" s="24"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P71" s="24"/>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="5" t="s">
         <v>418</v>
       </c>
@@ -7983,11 +8256,14 @@
       <c r="L72" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M72" s="24"/>
+      <c r="M72" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N72" s="24"/>
       <c r="O72" s="24"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P72" s="24"/>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="5" t="s">
         <v>418</v>
       </c>
@@ -8018,11 +8294,14 @@
       <c r="L73" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M73" s="24"/>
+      <c r="M73" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N73" s="24"/>
       <c r="O73" s="24"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P73" s="24"/>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="5" t="s">
         <v>418</v>
       </c>
@@ -8057,11 +8336,14 @@
       <c r="L74" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M74" s="24"/>
+      <c r="M74" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N74" s="24"/>
       <c r="O74" s="24"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P74" s="24"/>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" s="5" t="s">
         <v>418</v>
       </c>
@@ -8094,11 +8376,14 @@
       <c r="L75" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M75" s="24"/>
+      <c r="M75" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N75" s="24"/>
       <c r="O75" s="24"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P75" s="24"/>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="6" t="s">
         <v>408</v>
       </c>
@@ -8131,11 +8416,14 @@
       <c r="L76" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M76" s="24"/>
+      <c r="M76" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N76" s="24"/>
       <c r="O76" s="24"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P76" s="24"/>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" s="5" t="s">
         <v>419</v>
       </c>
@@ -8172,11 +8460,14 @@
       <c r="L77" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M77" s="24"/>
+      <c r="M77" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N77" s="24"/>
       <c r="O77" s="24"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P77" s="24"/>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="5" t="s">
         <v>419</v>
       </c>
@@ -8209,11 +8500,14 @@
       <c r="L78" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M78" s="24"/>
+      <c r="M78" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N78" s="24"/>
       <c r="O78" s="24"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P78" s="24"/>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" s="5" t="s">
         <v>419</v>
       </c>
@@ -8248,11 +8542,14 @@
       <c r="L79" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M79" s="24"/>
+      <c r="M79" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N79" s="24"/>
       <c r="O79" s="24"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P79" s="24"/>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" s="5" t="s">
         <v>419</v>
       </c>
@@ -8287,11 +8584,14 @@
       <c r="L80" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M80" s="24"/>
+      <c r="M80" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N80" s="24"/>
       <c r="O80" s="24"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P80" s="24"/>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" s="5" t="s">
         <v>419</v>
       </c>
@@ -8328,11 +8628,16 @@
       <c r="L81" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M81" s="24"/>
+      <c r="M81" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N81" s="24"/>
       <c r="O81" s="24"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P81" s="24" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" s="5" t="s">
         <v>419</v>
       </c>
@@ -8369,11 +8674,14 @@
       <c r="L82" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M82" s="24"/>
+      <c r="M82" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N82" s="24"/>
       <c r="O82" s="24"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P82" s="24"/>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" s="5" t="s">
         <v>419</v>
       </c>
@@ -8408,11 +8716,14 @@
       <c r="L83" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M83" s="24"/>
+      <c r="M83" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N83" s="24"/>
       <c r="O83" s="24"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P83" s="24"/>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" s="5" t="s">
         <v>419</v>
       </c>
@@ -8447,11 +8758,16 @@
       <c r="L84" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M84" s="24"/>
+      <c r="M84" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N84" s="24"/>
       <c r="O84" s="24"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P84" s="24" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" s="5" t="s">
         <v>419</v>
       </c>
@@ -8486,11 +8802,14 @@
       <c r="L85" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M85" s="24"/>
+      <c r="M85" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N85" s="24"/>
       <c r="O85" s="24"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P85" s="24"/>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" s="5" t="s">
         <v>419</v>
       </c>
@@ -8525,11 +8844,14 @@
       <c r="L86" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M86" s="24"/>
+      <c r="M86" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N86" s="24"/>
       <c r="O86" s="24"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P86" s="24"/>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" s="5" t="s">
         <v>419</v>
       </c>
@@ -8560,11 +8882,14 @@
       <c r="L87" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M87" s="24"/>
+      <c r="M87" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N87" s="24"/>
       <c r="O87" s="24"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P87" s="24"/>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" s="5" t="s">
         <v>419</v>
       </c>
@@ -8599,11 +8924,14 @@
       <c r="L88" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M88" s="24"/>
+      <c r="M88" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N88" s="24"/>
       <c r="O88" s="24"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P88" s="24"/>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" s="5" t="s">
         <v>419</v>
       </c>
@@ -8638,11 +8966,14 @@
       <c r="L89" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M89" s="24"/>
+      <c r="M89" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N89" s="24"/>
       <c r="O89" s="24"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P89" s="24"/>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" s="5" t="s">
         <v>419</v>
       </c>
@@ -8677,11 +9008,14 @@
       <c r="L90" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M90" s="24"/>
+      <c r="M90" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N90" s="24"/>
       <c r="O90" s="24"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P90" s="24"/>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" s="5" t="s">
         <v>419</v>
       </c>
@@ -8714,11 +9048,14 @@
       <c r="L91" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M91" s="24"/>
+      <c r="M91" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N91" s="24"/>
       <c r="O91" s="24"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P91" s="24"/>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" s="5" t="s">
         <v>419</v>
       </c>
@@ -8755,11 +9092,14 @@
       <c r="L92" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M92" s="24"/>
+      <c r="M92" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N92" s="24"/>
       <c r="O92" s="24"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P92" s="24"/>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" s="6" t="s">
         <v>409</v>
       </c>
@@ -8792,11 +9132,14 @@
       <c r="L93" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M93" s="24"/>
+      <c r="M93" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N93" s="24"/>
       <c r="O93" s="24"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P93" s="24"/>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" s="6" t="s">
         <v>404</v>
       </c>
@@ -8831,11 +9174,16 @@
       <c r="L94" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M94" s="24"/>
+      <c r="M94" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N94" s="24"/>
       <c r="O94" s="24"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P94" s="24" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" s="6" t="s">
         <v>404</v>
       </c>
@@ -8870,11 +9218,16 @@
       <c r="L95" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M95" s="24"/>
+      <c r="M95" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N95" s="24"/>
       <c r="O95" s="24"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P95" s="24" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" s="5" t="s">
         <v>420</v>
       </c>
@@ -8909,11 +9262,14 @@
       <c r="L96" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M96" s="24"/>
+      <c r="M96" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N96" s="24"/>
       <c r="O96" s="24"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P96" s="24"/>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" s="5" t="s">
         <v>420</v>
       </c>
@@ -8946,11 +9302,14 @@
       <c r="L97" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M97" s="24"/>
+      <c r="M97" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N97" s="24"/>
       <c r="O97" s="24"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P97" s="24"/>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" s="5" t="s">
         <v>420</v>
       </c>
@@ -8983,11 +9342,14 @@
       <c r="L98" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M98" s="24"/>
+      <c r="M98" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N98" s="24"/>
       <c r="O98" s="24"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P98" s="24"/>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" s="5" t="s">
         <v>420</v>
       </c>
@@ -9024,11 +9386,14 @@
       <c r="L99" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M99" s="24"/>
+      <c r="M99" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N99" s="24"/>
       <c r="O99" s="24"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P99" s="24"/>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" s="5" t="s">
         <v>420</v>
       </c>
@@ -9065,11 +9430,16 @@
       <c r="L100" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M100" s="24"/>
+      <c r="M100" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N100" s="24"/>
       <c r="O100" s="24"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P100" s="24" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" s="5" t="s">
         <v>420</v>
       </c>
@@ -9102,11 +9472,14 @@
       <c r="L101" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M101" s="24"/>
+      <c r="M101" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N101" s="24"/>
       <c r="O101" s="24"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P101" s="24"/>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" s="5" t="s">
         <v>420</v>
       </c>
@@ -9139,11 +9512,14 @@
       <c r="L102" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M102" s="24"/>
+      <c r="M102" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N102" s="24"/>
       <c r="O102" s="24"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P102" s="24"/>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103" s="5" t="s">
         <v>420</v>
       </c>
@@ -9176,11 +9552,14 @@
       <c r="L103" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M103" s="24"/>
+      <c r="M103" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N103" s="24"/>
       <c r="O103" s="24"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P103" s="24"/>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" s="5" t="s">
         <v>420</v>
       </c>
@@ -9213,11 +9592,14 @@
       <c r="L104" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M104" s="24"/>
+      <c r="M104" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N104" s="24"/>
       <c r="O104" s="24"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P104" s="24"/>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105" s="5" t="s">
         <v>420</v>
       </c>
@@ -9250,11 +9632,14 @@
       <c r="L105" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M105" s="24"/>
+      <c r="M105" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N105" s="24"/>
       <c r="O105" s="24"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P105" s="24"/>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" s="5" t="s">
         <v>420</v>
       </c>
@@ -9291,11 +9676,14 @@
       <c r="L106" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M106" s="24"/>
+      <c r="M106" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N106" s="24"/>
       <c r="O106" s="24"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P106" s="24"/>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107" s="5" t="s">
         <v>420</v>
       </c>
@@ -9330,11 +9718,14 @@
       <c r="L107" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M107" s="24"/>
+      <c r="M107" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N107" s="24"/>
       <c r="O107" s="24"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P107" s="24"/>
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108" s="5" t="s">
         <v>420</v>
       </c>
@@ -9371,11 +9762,14 @@
       <c r="L108" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M108" s="24"/>
+      <c r="M108" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N108" s="24"/>
       <c r="O108" s="24"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P108" s="24"/>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109" s="5" t="s">
         <v>420</v>
       </c>
@@ -9410,11 +9804,14 @@
       <c r="L109" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M109" s="24"/>
+      <c r="M109" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N109" s="24"/>
       <c r="O109" s="24"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P109" s="24"/>
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110" s="5" t="s">
         <v>406</v>
       </c>
@@ -9449,11 +9846,14 @@
       <c r="L110" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M110" s="24"/>
+      <c r="M110" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N110" s="24"/>
       <c r="O110" s="24"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P110" s="24"/>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" s="5" t="s">
         <v>425</v>
       </c>
@@ -9488,11 +9888,14 @@
       <c r="L111" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M111" s="24"/>
+      <c r="M111" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N111" s="24"/>
       <c r="O111" s="24"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P111" s="24"/>
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112" s="5" t="s">
         <v>425</v>
       </c>
@@ -9527,11 +9930,14 @@
       <c r="L112" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M112" s="24"/>
+      <c r="M112" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N112" s="24"/>
       <c r="O112" s="24"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P112" s="24"/>
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113" s="5" t="s">
         <v>425</v>
       </c>
@@ -9566,11 +9972,14 @@
       <c r="L113" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M113" s="24"/>
+      <c r="M113" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N113" s="24"/>
       <c r="O113" s="24"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P113" s="24"/>
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114" s="5" t="s">
         <v>425</v>
       </c>
@@ -9605,11 +10014,14 @@
       <c r="L114" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M114" s="24"/>
+      <c r="M114" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N114" s="24"/>
       <c r="O114" s="24"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P114" s="24"/>
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115" s="5" t="s">
         <v>425</v>
       </c>
@@ -9644,11 +10056,14 @@
       <c r="L115" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M115" s="24"/>
+      <c r="M115" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N115" s="24"/>
       <c r="O115" s="24"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P115" s="24"/>
+    </row>
+    <row r="116" spans="1:16">
       <c r="A116" s="5" t="s">
         <v>425</v>
       </c>
@@ -9681,11 +10096,14 @@
       <c r="L116" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M116" s="24"/>
+      <c r="M116" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N116" s="24"/>
       <c r="O116" s="24"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P116" s="24"/>
+    </row>
+    <row r="117" spans="1:16">
       <c r="A117" s="5" t="s">
         <v>425</v>
       </c>
@@ -9720,11 +10138,14 @@
       <c r="L117" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M117" s="24"/>
+      <c r="M117" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N117" s="24"/>
       <c r="O117" s="24"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P117" s="24"/>
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118" s="5" t="s">
         <v>425</v>
       </c>
@@ -9759,11 +10180,14 @@
       <c r="L118" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M118" s="24"/>
+      <c r="M118" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N118" s="24"/>
       <c r="O118" s="24"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P118" s="24"/>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" s="5" t="s">
         <v>425</v>
       </c>
@@ -9798,11 +10222,14 @@
       <c r="L119" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M119" s="24"/>
+      <c r="M119" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N119" s="24"/>
       <c r="O119" s="24"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P119" s="24"/>
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120" s="5" t="s">
         <v>425</v>
       </c>
@@ -9835,11 +10262,14 @@
       <c r="L120" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M120" s="24"/>
+      <c r="M120" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N120" s="24"/>
       <c r="O120" s="24"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P120" s="24"/>
+    </row>
+    <row r="121" spans="1:16">
       <c r="A121" s="5" t="s">
         <v>425</v>
       </c>
@@ -9876,11 +10306,14 @@
       <c r="L121" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M121" s="24"/>
+      <c r="M121" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N121" s="24"/>
       <c r="O121" s="24"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P121" s="24"/>
+    </row>
+    <row r="122" spans="1:16">
       <c r="A122" s="5" t="s">
         <v>425</v>
       </c>
@@ -9915,11 +10348,14 @@
       <c r="L122" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M122" s="24"/>
+      <c r="M122" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N122" s="24"/>
       <c r="O122" s="24"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P122" s="24"/>
+    </row>
+    <row r="123" spans="1:16">
       <c r="A123" s="5" t="s">
         <v>425</v>
       </c>
@@ -9954,11 +10390,14 @@
       <c r="L123" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M123" s="24"/>
+      <c r="M123" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N123" s="24"/>
       <c r="O123" s="24"/>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P123" s="24"/>
+    </row>
+    <row r="124" spans="1:16">
       <c r="A124" s="5" t="s">
         <v>425</v>
       </c>
@@ -9995,11 +10434,14 @@
       <c r="L124" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M124" s="24"/>
+      <c r="M124" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N124" s="24"/>
       <c r="O124" s="24"/>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P124" s="24"/>
+    </row>
+    <row r="125" spans="1:16">
       <c r="A125" s="5" t="s">
         <v>426</v>
       </c>
@@ -10034,11 +10476,16 @@
       <c r="L125" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M125" s="24"/>
+      <c r="M125" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N125" s="24"/>
       <c r="O125" s="24"/>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P125" s="24" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
       <c r="A126" s="5" t="s">
         <v>426</v>
       </c>
@@ -10073,11 +10520,14 @@
       <c r="L126" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M126" s="24"/>
+      <c r="M126" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N126" s="24"/>
       <c r="O126" s="24"/>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P126" s="24"/>
+    </row>
+    <row r="127" spans="1:16">
       <c r="A127" s="5" t="s">
         <v>426</v>
       </c>
@@ -10110,11 +10560,14 @@
       <c r="L127" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M127" s="24"/>
+      <c r="M127" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N127" s="24"/>
       <c r="O127" s="24"/>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P127" s="24"/>
+    </row>
+    <row r="128" spans="1:16">
       <c r="A128" s="5" t="s">
         <v>426</v>
       </c>
@@ -10147,11 +10600,14 @@
       <c r="L128" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M128" s="24"/>
+      <c r="M128" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N128" s="24"/>
       <c r="O128" s="24"/>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P128" s="24"/>
+    </row>
+    <row r="129" spans="1:16">
       <c r="A129" s="5" t="s">
         <v>426</v>
       </c>
@@ -10186,11 +10642,14 @@
       <c r="L129" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M129" s="24"/>
+      <c r="M129" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N129" s="24"/>
       <c r="O129" s="24"/>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P129" s="24"/>
+    </row>
+    <row r="130" spans="1:16">
       <c r="A130" s="5" t="s">
         <v>426</v>
       </c>
@@ -10225,11 +10684,14 @@
       <c r="L130" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M130" s="24"/>
+      <c r="M130" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N130" s="24"/>
       <c r="O130" s="24"/>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P130" s="24"/>
+    </row>
+    <row r="131" spans="1:16">
       <c r="A131" s="5" t="s">
         <v>426</v>
       </c>
@@ -10264,11 +10726,14 @@
       <c r="L131" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M131" s="24"/>
+      <c r="M131" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N131" s="24"/>
       <c r="O131" s="24"/>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P131" s="24"/>
+    </row>
+    <row r="132" spans="1:16">
       <c r="A132" s="5" t="s">
         <v>426</v>
       </c>
@@ -10305,11 +10770,16 @@
       <c r="L132" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M132" s="24"/>
+      <c r="M132" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N132" s="24"/>
       <c r="O132" s="24"/>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P132" s="24" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
       <c r="A133" s="5" t="s">
         <v>426</v>
       </c>
@@ -10344,11 +10814,14 @@
       <c r="L133" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M133" s="24"/>
+      <c r="M133" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N133" s="24"/>
       <c r="O133" s="24"/>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P133" s="24"/>
+    </row>
+    <row r="134" spans="1:16">
       <c r="A134" s="5" t="s">
         <v>426</v>
       </c>
@@ -10385,11 +10858,14 @@
       <c r="L134" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M134" s="24"/>
+      <c r="M134" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N134" s="24"/>
       <c r="O134" s="24"/>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P134" s="24"/>
+    </row>
+    <row r="135" spans="1:16">
       <c r="A135" s="5" t="s">
         <v>426</v>
       </c>
@@ -10424,11 +10900,14 @@
       <c r="L135" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M135" s="24"/>
+      <c r="M135" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N135" s="24"/>
       <c r="O135" s="24"/>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P135" s="24"/>
+    </row>
+    <row r="136" spans="1:16">
       <c r="A136" s="5" t="s">
         <v>426</v>
       </c>
@@ -10463,11 +10942,14 @@
       <c r="L136" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M136" s="24"/>
+      <c r="M136" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N136" s="24"/>
       <c r="O136" s="24"/>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P136" s="24"/>
+    </row>
+    <row r="137" spans="1:16">
       <c r="A137" s="5" t="s">
         <v>426</v>
       </c>
@@ -10502,11 +10984,14 @@
       <c r="L137" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M137" s="24"/>
+      <c r="M137" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N137" s="24"/>
       <c r="O137" s="24"/>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P137" s="24"/>
+    </row>
+    <row r="138" spans="1:16">
       <c r="A138" s="5" t="s">
         <v>426</v>
       </c>
@@ -10541,11 +11026,14 @@
       <c r="L138" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M138" s="24"/>
+      <c r="M138" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N138" s="24"/>
       <c r="O138" s="24"/>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P138" s="24"/>
+    </row>
+    <row r="139" spans="1:16">
       <c r="A139" s="5" t="s">
         <v>426</v>
       </c>
@@ -10578,11 +11066,14 @@
       <c r="L139" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M139" s="24"/>
+      <c r="M139" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N139" s="24"/>
       <c r="O139" s="24"/>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P139" s="24"/>
+    </row>
+    <row r="140" spans="1:16">
       <c r="A140" s="5" t="s">
         <v>426</v>
       </c>
@@ -10619,11 +11110,16 @@
       <c r="L140" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M140" s="24"/>
+      <c r="M140" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N140" s="24"/>
       <c r="O140" s="24"/>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P140" s="24" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
       <c r="A141" s="5" t="s">
         <v>426</v>
       </c>
@@ -10656,11 +11152,16 @@
       <c r="L141" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M141" s="24"/>
+      <c r="M141" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N141" s="24"/>
       <c r="O141" s="24"/>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P141" s="24" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
       <c r="A142" s="5" t="s">
         <v>426</v>
       </c>
@@ -10695,11 +11196,14 @@
       <c r="L142" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M142" s="24"/>
+      <c r="M142" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N142" s="24"/>
       <c r="O142" s="24"/>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P142" s="24"/>
+    </row>
+    <row r="143" spans="1:16">
       <c r="A143" s="5" t="s">
         <v>426</v>
       </c>
@@ -10736,11 +11240,16 @@
       <c r="L143" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M143" s="24"/>
+      <c r="M143" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N143" s="24"/>
       <c r="O143" s="24"/>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P143" s="24" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
       <c r="A144" s="5" t="s">
         <v>426</v>
       </c>
@@ -10775,11 +11284,14 @@
       <c r="L144" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M144" s="24"/>
+      <c r="M144" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N144" s="24"/>
       <c r="O144" s="24"/>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P144" s="24"/>
+    </row>
+    <row r="145" spans="1:16">
       <c r="A145" s="5" t="s">
         <v>426</v>
       </c>
@@ -10814,11 +11326,14 @@
       <c r="L145" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M145" s="24"/>
+      <c r="M145" s="23" t="s">
+        <v>695</v>
+      </c>
       <c r="N145" s="24"/>
       <c r="O145" s="24"/>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P145" s="24"/>
+    </row>
+    <row r="146" spans="1:16">
       <c r="A146" s="30"/>
       <c r="B146" s="33"/>
       <c r="C146" s="32"/>
@@ -10831,11 +11346,12 @@
       <c r="J146" s="31"/>
       <c r="K146" s="30"/>
       <c r="L146" s="30"/>
-      <c r="M146" s="32"/>
+      <c r="M146" s="30"/>
       <c r="N146" s="32"/>
       <c r="O146" s="32"/>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P146" s="32"/>
+    </row>
+    <row r="147" spans="1:16">
       <c r="A147" s="34" t="s">
         <v>434</v>
       </c>
@@ -10850,11 +11366,12 @@
       <c r="J147" s="31"/>
       <c r="K147" s="30"/>
       <c r="L147" s="30"/>
-      <c r="M147" s="32"/>
+      <c r="M147" s="30"/>
       <c r="N147" s="32"/>
       <c r="O147" s="32"/>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P147" s="32"/>
+    </row>
+    <row r="148" spans="1:16">
       <c r="A148" s="5" t="s">
         <v>422</v>
       </c>
@@ -10891,11 +11408,14 @@
       <c r="L148" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M148" s="24"/>
+      <c r="M148" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N148" s="24"/>
       <c r="O148" s="24"/>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P148" s="24"/>
+    </row>
+    <row r="149" spans="1:16">
       <c r="A149" s="5" t="s">
         <v>422</v>
       </c>
@@ -10930,11 +11450,14 @@
       <c r="L149" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M149" s="24"/>
+      <c r="M149" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N149" s="24"/>
       <c r="O149" s="24"/>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P149" s="24"/>
+    </row>
+    <row r="150" spans="1:16">
       <c r="A150" s="5" t="s">
         <v>422</v>
       </c>
@@ -10969,11 +11492,14 @@
       <c r="L150" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M150" s="24"/>
+      <c r="M150" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N150" s="24"/>
       <c r="O150" s="24"/>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P150" s="24"/>
+    </row>
+    <row r="151" spans="1:16">
       <c r="A151" s="5" t="s">
         <v>422</v>
       </c>
@@ -11008,11 +11534,14 @@
       <c r="L151" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M151" s="24"/>
+      <c r="M151" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N151" s="24"/>
       <c r="O151" s="24"/>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P151" s="24"/>
+    </row>
+    <row r="152" spans="1:16">
       <c r="A152" s="5" t="s">
         <v>422</v>
       </c>
@@ -11049,11 +11578,14 @@
       <c r="L152" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M152" s="24"/>
+      <c r="M152" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N152" s="24"/>
       <c r="O152" s="24"/>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P152" s="24"/>
+    </row>
+    <row r="153" spans="1:16">
       <c r="A153" s="23" t="s">
         <v>422</v>
       </c>
@@ -11084,11 +11616,14 @@
       <c r="L153" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M153" s="24"/>
+      <c r="M153" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N153" s="24"/>
       <c r="O153" s="24"/>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P153" s="24"/>
+    </row>
+    <row r="154" spans="1:16">
       <c r="A154" s="5" t="s">
         <v>424</v>
       </c>
@@ -11121,11 +11656,14 @@
       <c r="L154" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M154" s="24"/>
+      <c r="M154" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N154" s="24"/>
       <c r="O154" s="24"/>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P154" s="24"/>
+    </row>
+    <row r="155" spans="1:16">
       <c r="A155" s="5" t="s">
         <v>424</v>
       </c>
@@ -11158,11 +11696,14 @@
       <c r="L155" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M155" s="24"/>
+      <c r="M155" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N155" s="24"/>
       <c r="O155" s="24"/>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P155" s="24"/>
+    </row>
+    <row r="156" spans="1:16">
       <c r="A156" s="5" t="s">
         <v>424</v>
       </c>
@@ -11195,11 +11736,14 @@
       <c r="L156" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M156" s="24"/>
+      <c r="M156" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N156" s="24"/>
       <c r="O156" s="24"/>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P156" s="24"/>
+    </row>
+    <row r="157" spans="1:16">
       <c r="A157" s="5" t="s">
         <v>424</v>
       </c>
@@ -11236,11 +11780,14 @@
       <c r="L157" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M157" s="24"/>
+      <c r="M157" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N157" s="24"/>
       <c r="O157" s="24"/>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P157" s="24"/>
+    </row>
+    <row r="158" spans="1:16">
       <c r="A158" s="5" t="s">
         <v>411</v>
       </c>
@@ -11275,11 +11822,14 @@
       <c r="L158" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M158" s="24"/>
+      <c r="M158" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N158" s="24"/>
       <c r="O158" s="24"/>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P158" s="24"/>
+    </row>
+    <row r="159" spans="1:16">
       <c r="A159" s="5" t="s">
         <v>411</v>
       </c>
@@ -11316,11 +11866,14 @@
       <c r="L159" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M159" s="24"/>
+      <c r="M159" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N159" s="24"/>
       <c r="O159" s="24"/>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P159" s="24"/>
+    </row>
+    <row r="160" spans="1:16">
       <c r="A160" s="5" t="s">
         <v>411</v>
       </c>
@@ -11357,11 +11910,14 @@
       <c r="L160" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M160" s="24"/>
+      <c r="M160" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N160" s="24"/>
       <c r="O160" s="24"/>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P160" s="24"/>
+    </row>
+    <row r="161" spans="1:16">
       <c r="A161" s="5" t="s">
         <v>411</v>
       </c>
@@ -11396,11 +11952,14 @@
       <c r="L161" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M161" s="24"/>
+      <c r="M161" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N161" s="24"/>
       <c r="O161" s="24"/>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P161" s="24"/>
+    </row>
+    <row r="162" spans="1:16">
       <c r="A162" s="5" t="s">
         <v>416</v>
       </c>
@@ -11437,11 +11996,14 @@
       <c r="L162" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M162" s="24"/>
+      <c r="M162" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N162" s="24"/>
       <c r="O162" s="24"/>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P162" s="24"/>
+    </row>
+    <row r="163" spans="1:16">
       <c r="A163" s="5" t="s">
         <v>416</v>
       </c>
@@ -11476,11 +12038,14 @@
       <c r="L163" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M163" s="24"/>
+      <c r="M163" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N163" s="24"/>
       <c r="O163" s="24"/>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P163" s="24"/>
+    </row>
+    <row r="164" spans="1:16">
       <c r="A164" s="5" t="s">
         <v>416</v>
       </c>
@@ -11513,11 +12078,14 @@
       <c r="L164" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M164" s="24"/>
+      <c r="M164" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N164" s="24"/>
       <c r="O164" s="24"/>
-    </row>
-    <row r="165" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="P164" s="24"/>
+    </row>
+    <row r="165" spans="1:16" ht="17.25">
       <c r="A165" s="5" t="s">
         <v>416</v>
       </c>
@@ -11554,11 +12122,14 @@
       <c r="L165" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M165" s="24"/>
+      <c r="M165" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N165" s="24"/>
       <c r="O165" s="24"/>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P165" s="24"/>
+    </row>
+    <row r="166" spans="1:16">
       <c r="A166" s="5" t="s">
         <v>417</v>
       </c>
@@ -11593,11 +12164,14 @@
       <c r="L166" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M166" s="24"/>
+      <c r="M166" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N166" s="24"/>
       <c r="O166" s="24"/>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P166" s="24"/>
+    </row>
+    <row r="167" spans="1:16">
       <c r="A167" s="5" t="s">
         <v>417</v>
       </c>
@@ -11634,11 +12208,14 @@
       <c r="L167" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M167" s="24"/>
+      <c r="M167" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N167" s="24"/>
       <c r="O167" s="24"/>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P167" s="24"/>
+    </row>
+    <row r="168" spans="1:16">
       <c r="A168" s="5" t="s">
         <v>417</v>
       </c>
@@ -11675,11 +12252,14 @@
       <c r="L168" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M168" s="24"/>
+      <c r="M168" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N168" s="24"/>
       <c r="O168" s="24"/>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P168" s="24"/>
+    </row>
+    <row r="169" spans="1:16">
       <c r="A169" s="5" t="s">
         <v>417</v>
       </c>
@@ -11716,11 +12296,14 @@
       <c r="L169" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M169" s="24"/>
+      <c r="M169" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N169" s="24"/>
       <c r="O169" s="24"/>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P169" s="24"/>
+    </row>
+    <row r="170" spans="1:16">
       <c r="A170" s="5" t="s">
         <v>417</v>
       </c>
@@ -11755,11 +12338,14 @@
       <c r="L170" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M170" s="24"/>
+      <c r="M170" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N170" s="24"/>
       <c r="O170" s="24"/>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P170" s="24"/>
+    </row>
+    <row r="171" spans="1:16">
       <c r="A171" s="5" t="s">
         <v>418</v>
       </c>
@@ -11796,11 +12382,14 @@
       <c r="L171" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M171" s="24"/>
+      <c r="M171" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N171" s="24"/>
       <c r="O171" s="24"/>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P171" s="24"/>
+    </row>
+    <row r="172" spans="1:16">
       <c r="A172" s="5" t="s">
         <v>418</v>
       </c>
@@ -11837,11 +12426,16 @@
       <c r="L172" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M172" s="24"/>
+      <c r="M172" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N172" s="24"/>
       <c r="O172" s="24"/>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P172" s="24" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16">
       <c r="A173" s="5" t="s">
         <v>418</v>
       </c>
@@ -11878,11 +12472,14 @@
       <c r="L173" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M173" s="24"/>
+      <c r="M173" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N173" s="24"/>
       <c r="O173" s="24"/>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P173" s="24"/>
+    </row>
+    <row r="174" spans="1:16">
       <c r="A174" s="5" t="s">
         <v>418</v>
       </c>
@@ -11919,11 +12516,14 @@
       <c r="L174" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M174" s="24"/>
+      <c r="M174" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N174" s="24"/>
       <c r="O174" s="24"/>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P174" s="24"/>
+    </row>
+    <row r="175" spans="1:16">
       <c r="A175" s="5" t="s">
         <v>418</v>
       </c>
@@ -11958,11 +12558,14 @@
       <c r="L175" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M175" s="24"/>
+      <c r="M175" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N175" s="24"/>
       <c r="O175" s="24"/>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P175" s="24"/>
+    </row>
+    <row r="176" spans="1:16">
       <c r="A176" s="5" t="s">
         <v>419</v>
       </c>
@@ -11997,11 +12600,14 @@
       <c r="L176" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M176" s="24"/>
+      <c r="M176" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N176" s="24"/>
       <c r="O176" s="24"/>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P176" s="24"/>
+    </row>
+    <row r="177" spans="1:16">
       <c r="A177" s="5" t="s">
         <v>419</v>
       </c>
@@ -12038,11 +12644,14 @@
       <c r="L177" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M177" s="24"/>
+      <c r="M177" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N177" s="24"/>
       <c r="O177" s="24"/>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P177" s="24"/>
+    </row>
+    <row r="178" spans="1:16">
       <c r="A178" s="5" t="s">
         <v>419</v>
       </c>
@@ -12077,11 +12686,14 @@
       <c r="L178" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M178" s="24"/>
+      <c r="M178" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N178" s="24"/>
       <c r="O178" s="24"/>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P178" s="24"/>
+    </row>
+    <row r="179" spans="1:16">
       <c r="A179" s="5" t="s">
         <v>419</v>
       </c>
@@ -12118,11 +12730,14 @@
       <c r="L179" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M179" s="24"/>
+      <c r="M179" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N179" s="24"/>
       <c r="O179" s="24"/>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P179" s="24"/>
+    </row>
+    <row r="180" spans="1:16">
       <c r="A180" s="5" t="s">
         <v>419</v>
       </c>
@@ -12157,11 +12772,14 @@
       <c r="L180" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M180" s="24"/>
+      <c r="M180" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N180" s="24"/>
       <c r="O180" s="24"/>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P180" s="24"/>
+    </row>
+    <row r="181" spans="1:16">
       <c r="A181" s="5" t="s">
         <v>419</v>
       </c>
@@ -12196,11 +12814,14 @@
       <c r="L181" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M181" s="24"/>
+      <c r="M181" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N181" s="24"/>
       <c r="O181" s="24"/>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P181" s="24"/>
+    </row>
+    <row r="182" spans="1:16">
       <c r="A182" s="5" t="s">
         <v>420</v>
       </c>
@@ -12237,11 +12858,14 @@
       <c r="L182" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M182" s="24"/>
+      <c r="M182" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N182" s="24"/>
       <c r="O182" s="24"/>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P182" s="24"/>
+    </row>
+    <row r="183" spans="1:16">
       <c r="A183" s="5" t="s">
         <v>420</v>
       </c>
@@ -12278,11 +12902,14 @@
       <c r="L183" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M183" s="24"/>
+      <c r="M183" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N183" s="24"/>
       <c r="O183" s="24"/>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P183" s="24"/>
+    </row>
+    <row r="184" spans="1:16">
       <c r="A184" s="5" t="s">
         <v>420</v>
       </c>
@@ -12317,11 +12944,14 @@
       <c r="L184" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M184" s="24"/>
+      <c r="M184" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N184" s="24"/>
       <c r="O184" s="24"/>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P184" s="24"/>
+    </row>
+    <row r="185" spans="1:16">
       <c r="A185" s="5" t="s">
         <v>420</v>
       </c>
@@ -12358,11 +12988,14 @@
       <c r="L185" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M185" s="24"/>
+      <c r="M185" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N185" s="24"/>
       <c r="O185" s="24"/>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P185" s="24"/>
+    </row>
+    <row r="186" spans="1:16">
       <c r="A186" s="5" t="s">
         <v>420</v>
       </c>
@@ -12399,11 +13032,14 @@
       <c r="L186" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M186" s="24"/>
+      <c r="M186" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N186" s="24"/>
       <c r="O186" s="24"/>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P186" s="24"/>
+    </row>
+    <row r="187" spans="1:16">
       <c r="A187" s="5" t="s">
         <v>420</v>
       </c>
@@ -12436,11 +13072,14 @@
       <c r="L187" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M187" s="24"/>
+      <c r="M187" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N187" s="24"/>
       <c r="O187" s="24"/>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P187" s="24"/>
+    </row>
+    <row r="188" spans="1:16">
       <c r="A188" s="5" t="s">
         <v>420</v>
       </c>
@@ -12477,11 +13116,14 @@
       <c r="L188" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M188" s="24"/>
+      <c r="M188" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N188" s="24"/>
       <c r="O188" s="24"/>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P188" s="24"/>
+    </row>
+    <row r="189" spans="1:16">
       <c r="A189" s="6" t="s">
         <v>406</v>
       </c>
@@ -12516,11 +13158,14 @@
       <c r="L189" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M189" s="24"/>
+      <c r="M189" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N189" s="24"/>
       <c r="O189" s="24"/>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P189" s="24"/>
+    </row>
+    <row r="190" spans="1:16">
       <c r="A190" s="5" t="s">
         <v>425</v>
       </c>
@@ -12557,11 +13202,14 @@
       <c r="L190" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="M190" s="24"/>
+      <c r="M190" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N190" s="24"/>
       <c r="O190" s="24"/>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P190" s="24"/>
+    </row>
+    <row r="191" spans="1:16">
       <c r="A191" s="5" t="s">
         <v>425</v>
       </c>
@@ -12598,11 +13246,14 @@
       <c r="L191" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M191" s="24"/>
+      <c r="M191" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N191" s="24"/>
       <c r="O191" s="24"/>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P191" s="24"/>
+    </row>
+    <row r="192" spans="1:16">
       <c r="A192" s="5" t="s">
         <v>425</v>
       </c>
@@ -12639,11 +13290,14 @@
       <c r="L192" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M192" s="24"/>
+      <c r="M192" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N192" s="24"/>
       <c r="O192" s="24"/>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P192" s="24"/>
+    </row>
+    <row r="193" spans="1:16">
       <c r="A193" s="5" t="s">
         <v>425</v>
       </c>
@@ -12678,16 +13332,19 @@
       <c r="L193" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="M193" s="24"/>
+      <c r="M193" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N193" s="24"/>
       <c r="O193" s="24"/>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P193" s="24"/>
+    </row>
+    <row r="195" spans="1:16">
       <c r="A195" s="22" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16">
       <c r="A196" s="5" t="s">
         <v>687</v>
       </c>
@@ -12708,11 +13365,12 @@
       <c r="J196" s="26"/>
       <c r="K196" s="23"/>
       <c r="L196" s="23"/>
-      <c r="M196" s="24"/>
+      <c r="M196" s="23"/>
       <c r="N196" s="24"/>
       <c r="O196" s="24"/>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P196" s="24"/>
+    </row>
+    <row r="197" spans="1:16">
       <c r="A197" s="5" t="s">
         <v>687</v>
       </c>
@@ -12733,11 +13391,16 @@
       <c r="J197" s="26"/>
       <c r="K197" s="23"/>
       <c r="L197" s="23"/>
-      <c r="M197" s="24"/>
+      <c r="M197" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="N197" s="24"/>
       <c r="O197" s="24"/>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P197" s="24" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16">
       <c r="A198" s="5" t="s">
         <v>687</v>
       </c>
@@ -12760,11 +13423,12 @@
       <c r="J198" s="26"/>
       <c r="K198" s="23"/>
       <c r="L198" s="23"/>
-      <c r="M198" s="24"/>
+      <c r="M198" s="23"/>
       <c r="N198" s="24"/>
       <c r="O198" s="24"/>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P198" s="24"/>
+    </row>
+    <row r="199" spans="1:16">
       <c r="A199" s="5" t="s">
         <v>687</v>
       </c>
@@ -12785,11 +13449,12 @@
       <c r="J199" s="26"/>
       <c r="K199" s="23"/>
       <c r="L199" s="23"/>
-      <c r="M199" s="24"/>
+      <c r="M199" s="23"/>
       <c r="N199" s="24"/>
       <c r="O199" s="24"/>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P199" s="24"/>
+    </row>
+    <row r="200" spans="1:16">
       <c r="A200" s="5" t="s">
         <v>687</v>
       </c>
@@ -12810,11 +13475,12 @@
       <c r="J200" s="26"/>
       <c r="K200" s="23"/>
       <c r="L200" s="23"/>
-      <c r="M200" s="24"/>
+      <c r="M200" s="23"/>
       <c r="N200" s="24"/>
       <c r="O200" s="24"/>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P200" s="24"/>
+    </row>
+    <row r="201" spans="1:16">
       <c r="A201" s="5" t="s">
         <v>688</v>
       </c>
@@ -12837,11 +13503,12 @@
       <c r="J201" s="26"/>
       <c r="K201" s="23"/>
       <c r="L201" s="23"/>
-      <c r="M201" s="24"/>
+      <c r="M201" s="23"/>
       <c r="N201" s="24"/>
       <c r="O201" s="24"/>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P201" s="24"/>
+    </row>
+    <row r="202" spans="1:16">
       <c r="A202" s="5" t="s">
         <v>688</v>
       </c>
@@ -12864,11 +13531,12 @@
       <c r="J202" s="26"/>
       <c r="K202" s="23"/>
       <c r="L202" s="23"/>
-      <c r="M202" s="24"/>
+      <c r="M202" s="23"/>
       <c r="N202" s="24"/>
       <c r="O202" s="24"/>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P202" s="24"/>
+    </row>
+    <row r="203" spans="1:16">
       <c r="A203" s="5" t="s">
         <v>688</v>
       </c>
@@ -12891,11 +13559,12 @@
       <c r="J203" s="26"/>
       <c r="K203" s="23"/>
       <c r="L203" s="23"/>
-      <c r="M203" s="24"/>
+      <c r="M203" s="23"/>
       <c r="N203" s="24"/>
       <c r="O203" s="24"/>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P203" s="24"/>
+    </row>
+    <row r="204" spans="1:16">
       <c r="A204" s="5" t="s">
         <v>688</v>
       </c>
@@ -12916,11 +13585,12 @@
       <c r="J204" s="26"/>
       <c r="K204" s="23"/>
       <c r="L204" s="23"/>
-      <c r="M204" s="24"/>
+      <c r="M204" s="23"/>
       <c r="N204" s="24"/>
       <c r="O204" s="24"/>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P204" s="24"/>
+    </row>
+    <row r="205" spans="1:16">
       <c r="A205" s="5" t="s">
         <v>688</v>
       </c>
@@ -12943,11 +13613,12 @@
       <c r="J205" s="26"/>
       <c r="K205" s="23"/>
       <c r="L205" s="23"/>
-      <c r="M205" s="24"/>
+      <c r="M205" s="23"/>
       <c r="N205" s="24"/>
       <c r="O205" s="24"/>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P205" s="24"/>
+    </row>
+    <row r="206" spans="1:16">
       <c r="A206" s="5" t="s">
         <v>681</v>
       </c>
@@ -12968,11 +13639,12 @@
       <c r="J206" s="26"/>
       <c r="K206" s="23"/>
       <c r="L206" s="23"/>
-      <c r="M206" s="24"/>
+      <c r="M206" s="23"/>
       <c r="N206" s="24"/>
       <c r="O206" s="24"/>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P206" s="24"/>
+    </row>
+    <row r="207" spans="1:16">
       <c r="A207" s="5" t="s">
         <v>681</v>
       </c>
@@ -12993,11 +13665,12 @@
       <c r="J207" s="26"/>
       <c r="K207" s="23"/>
       <c r="L207" s="23"/>
-      <c r="M207" s="24"/>
+      <c r="M207" s="23"/>
       <c r="N207" s="24"/>
       <c r="O207" s="24"/>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P207" s="24"/>
+    </row>
+    <row r="208" spans="1:16">
       <c r="A208" s="5" t="s">
         <v>681</v>
       </c>
@@ -13020,11 +13693,12 @@
       <c r="J208" s="26"/>
       <c r="K208" s="23"/>
       <c r="L208" s="23"/>
-      <c r="M208" s="24"/>
+      <c r="M208" s="23"/>
       <c r="N208" s="24"/>
       <c r="O208" s="24"/>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P208" s="24"/>
+    </row>
+    <row r="209" spans="1:16">
       <c r="A209" s="5" t="s">
         <v>682</v>
       </c>
@@ -13047,11 +13721,12 @@
       <c r="J209" s="26"/>
       <c r="K209" s="23"/>
       <c r="L209" s="23"/>
-      <c r="M209" s="24"/>
+      <c r="M209" s="23"/>
       <c r="N209" s="24"/>
       <c r="O209" s="24"/>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P209" s="24"/>
+    </row>
+    <row r="210" spans="1:16">
       <c r="A210" s="5" t="s">
         <v>682</v>
       </c>
@@ -13074,11 +13749,12 @@
       <c r="J210" s="26"/>
       <c r="K210" s="23"/>
       <c r="L210" s="23"/>
-      <c r="M210" s="24"/>
+      <c r="M210" s="23"/>
       <c r="N210" s="24"/>
       <c r="O210" s="24"/>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P210" s="24"/>
+    </row>
+    <row r="211" spans="1:16">
       <c r="A211" s="5" t="s">
         <v>682</v>
       </c>
@@ -13099,11 +13775,12 @@
       <c r="J211" s="26"/>
       <c r="K211" s="23"/>
       <c r="L211" s="23"/>
-      <c r="M211" s="24"/>
+      <c r="M211" s="23"/>
       <c r="N211" s="24"/>
       <c r="O211" s="24"/>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P211" s="24"/>
+    </row>
+    <row r="212" spans="1:16">
       <c r="A212" s="5" t="s">
         <v>683</v>
       </c>
@@ -13126,11 +13803,12 @@
       <c r="J212" s="26"/>
       <c r="K212" s="23"/>
       <c r="L212" s="23"/>
-      <c r="M212" s="24"/>
+      <c r="M212" s="23"/>
       <c r="N212" s="24"/>
       <c r="O212" s="24"/>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P212" s="24"/>
+    </row>
+    <row r="213" spans="1:16">
       <c r="A213" s="5" t="s">
         <v>683</v>
       </c>
@@ -13153,11 +13831,12 @@
       <c r="J213" s="28"/>
       <c r="K213" s="23"/>
       <c r="L213" s="23"/>
-      <c r="M213" s="24"/>
+      <c r="M213" s="23"/>
       <c r="N213" s="24"/>
       <c r="O213" s="24"/>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P213" s="24"/>
+    </row>
+    <row r="214" spans="1:16">
       <c r="A214" s="5" t="s">
         <v>683</v>
       </c>
@@ -13178,11 +13857,12 @@
       <c r="J214" s="26"/>
       <c r="K214" s="23"/>
       <c r="L214" s="23"/>
-      <c r="M214" s="24"/>
+      <c r="M214" s="23"/>
       <c r="N214" s="24"/>
       <c r="O214" s="24"/>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P214" s="24"/>
+    </row>
+    <row r="215" spans="1:16">
       <c r="A215" s="5" t="s">
         <v>683</v>
       </c>
@@ -13203,11 +13883,12 @@
       <c r="J215" s="26"/>
       <c r="K215" s="23"/>
       <c r="L215" s="23"/>
-      <c r="M215" s="24"/>
+      <c r="M215" s="23"/>
       <c r="N215" s="24"/>
       <c r="O215" s="24"/>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P215" s="24"/>
+    </row>
+    <row r="216" spans="1:16">
       <c r="A216" s="5" t="s">
         <v>684</v>
       </c>
@@ -13230,11 +13911,12 @@
       <c r="J216" s="26"/>
       <c r="K216" s="23"/>
       <c r="L216" s="23"/>
-      <c r="M216" s="24"/>
+      <c r="M216" s="23"/>
       <c r="N216" s="24"/>
       <c r="O216" s="24"/>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P216" s="24"/>
+    </row>
+    <row r="217" spans="1:16">
       <c r="A217" s="5" t="s">
         <v>684</v>
       </c>
@@ -13257,11 +13939,12 @@
       <c r="J217" s="26"/>
       <c r="K217" s="23"/>
       <c r="L217" s="23"/>
-      <c r="M217" s="24"/>
+      <c r="M217" s="23"/>
       <c r="N217" s="24"/>
       <c r="O217" s="24"/>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P217" s="24"/>
+    </row>
+    <row r="218" spans="1:16">
       <c r="A218" s="5" t="s">
         <v>684</v>
       </c>
@@ -13284,11 +13967,12 @@
       <c r="J218" s="26"/>
       <c r="K218" s="23"/>
       <c r="L218" s="23"/>
-      <c r="M218" s="24"/>
+      <c r="M218" s="23"/>
       <c r="N218" s="24"/>
       <c r="O218" s="24"/>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P218" s="24"/>
+    </row>
+    <row r="219" spans="1:16">
       <c r="A219" s="5" t="s">
         <v>684</v>
       </c>
@@ -13309,11 +13993,12 @@
       <c r="J219" s="26"/>
       <c r="K219" s="23"/>
       <c r="L219" s="23"/>
-      <c r="M219" s="24"/>
+      <c r="M219" s="23"/>
       <c r="N219" s="24"/>
       <c r="O219" s="24"/>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P219" s="24"/>
+    </row>
+    <row r="220" spans="1:16">
       <c r="A220" s="5" t="s">
         <v>684</v>
       </c>
@@ -13334,11 +14019,12 @@
       <c r="J220" s="26"/>
       <c r="K220" s="23"/>
       <c r="L220" s="23"/>
-      <c r="M220" s="24"/>
+      <c r="M220" s="23"/>
       <c r="N220" s="24"/>
       <c r="O220" s="24"/>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P220" s="24"/>
+    </row>
+    <row r="221" spans="1:16">
       <c r="A221" s="5" t="s">
         <v>684</v>
       </c>
@@ -13359,11 +14045,12 @@
       <c r="J221" s="26"/>
       <c r="K221" s="23"/>
       <c r="L221" s="23"/>
-      <c r="M221" s="24"/>
+      <c r="M221" s="23"/>
       <c r="N221" s="24"/>
       <c r="O221" s="24"/>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P221" s="24"/>
+    </row>
+    <row r="222" spans="1:16">
       <c r="A222" s="5" t="s">
         <v>684</v>
       </c>
@@ -13384,11 +14071,12 @@
       <c r="J222" s="26"/>
       <c r="K222" s="23"/>
       <c r="L222" s="23"/>
-      <c r="M222" s="24"/>
+      <c r="M222" s="23"/>
       <c r="N222" s="24"/>
       <c r="O222" s="24"/>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P222" s="24"/>
+    </row>
+    <row r="223" spans="1:16">
       <c r="A223" s="5" t="s">
         <v>685</v>
       </c>
@@ -13409,11 +14097,12 @@
       <c r="J223" s="26"/>
       <c r="K223" s="23"/>
       <c r="L223" s="23"/>
-      <c r="M223" s="24"/>
+      <c r="M223" s="23"/>
       <c r="N223" s="24"/>
       <c r="O223" s="24"/>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P223" s="24"/>
+    </row>
+    <row r="224" spans="1:16">
       <c r="A224" s="5" t="s">
         <v>685</v>
       </c>
@@ -13434,11 +14123,12 @@
       <c r="J224" s="26"/>
       <c r="K224" s="23"/>
       <c r="L224" s="23"/>
-      <c r="M224" s="24"/>
+      <c r="M224" s="23"/>
       <c r="N224" s="24"/>
       <c r="O224" s="24"/>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P224" s="24"/>
+    </row>
+    <row r="225" spans="1:16">
       <c r="A225" s="5" t="s">
         <v>685</v>
       </c>
@@ -13461,11 +14151,12 @@
       <c r="J225" s="26"/>
       <c r="K225" s="23"/>
       <c r="L225" s="23"/>
-      <c r="M225" s="24"/>
+      <c r="M225" s="23"/>
       <c r="N225" s="24"/>
       <c r="O225" s="24"/>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P225" s="24"/>
+    </row>
+    <row r="226" spans="1:16">
       <c r="A226" s="5" t="s">
         <v>686</v>
       </c>
@@ -13488,11 +14179,12 @@
       <c r="J226" s="26"/>
       <c r="K226" s="23"/>
       <c r="L226" s="23"/>
-      <c r="M226" s="24"/>
+      <c r="M226" s="23"/>
       <c r="N226" s="24"/>
       <c r="O226" s="24"/>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P226" s="24"/>
+    </row>
+    <row r="227" spans="1:16">
       <c r="A227" s="5" t="s">
         <v>686</v>
       </c>
@@ -13515,11 +14207,12 @@
       <c r="J227" s="26"/>
       <c r="K227" s="23"/>
       <c r="L227" s="23"/>
-      <c r="M227" s="24"/>
+      <c r="M227" s="23"/>
       <c r="N227" s="24"/>
       <c r="O227" s="24"/>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P227" s="24"/>
+    </row>
+    <row r="228" spans="1:16">
       <c r="A228" s="5" t="s">
         <v>686</v>
       </c>
@@ -13540,11 +14233,12 @@
       <c r="J228" s="26"/>
       <c r="K228" s="23"/>
       <c r="L228" s="23"/>
-      <c r="M228" s="24"/>
+      <c r="M228" s="23"/>
       <c r="N228" s="24"/>
       <c r="O228" s="24"/>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P228" s="24"/>
+    </row>
+    <row r="229" spans="1:16">
       <c r="A229" s="5" t="s">
         <v>686</v>
       </c>
@@ -13565,11 +14259,12 @@
       <c r="J229" s="26"/>
       <c r="K229" s="23"/>
       <c r="L229" s="23"/>
-      <c r="M229" s="24"/>
+      <c r="M229" s="23"/>
       <c r="N229" s="24"/>
       <c r="O229" s="24"/>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P229" s="24"/>
+    </row>
+    <row r="230" spans="1:16">
       <c r="A230" s="5" t="s">
         <v>689</v>
       </c>
@@ -13592,11 +14287,12 @@
       <c r="J230" s="26"/>
       <c r="K230" s="23"/>
       <c r="L230" s="23"/>
-      <c r="M230" s="24"/>
+      <c r="M230" s="23"/>
       <c r="N230" s="24"/>
       <c r="O230" s="24"/>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P230" s="24"/>
+    </row>
+    <row r="231" spans="1:16">
       <c r="A231" s="5" t="s">
         <v>689</v>
       </c>
@@ -13619,11 +14315,12 @@
       <c r="J231" s="26"/>
       <c r="K231" s="23"/>
       <c r="L231" s="23"/>
-      <c r="M231" s="24"/>
+      <c r="M231" s="23"/>
       <c r="N231" s="24"/>
       <c r="O231" s="24"/>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P231" s="24"/>
+    </row>
+    <row r="232" spans="1:16">
       <c r="A232" s="5" t="s">
         <v>689</v>
       </c>
@@ -13644,11 +14341,12 @@
       <c r="J232" s="26"/>
       <c r="K232" s="23"/>
       <c r="L232" s="23"/>
-      <c r="M232" s="24"/>
+      <c r="M232" s="23"/>
       <c r="N232" s="24"/>
       <c r="O232" s="24"/>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P232" s="24"/>
+    </row>
+    <row r="233" spans="1:16">
       <c r="A233" s="5" t="s">
         <v>689</v>
       </c>
@@ -13671,11 +14369,12 @@
       <c r="J233" s="26"/>
       <c r="K233" s="23"/>
       <c r="L233" s="23"/>
-      <c r="M233" s="24"/>
+      <c r="M233" s="23"/>
       <c r="N233" s="24"/>
       <c r="O233" s="24"/>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P233" s="24"/>
+    </row>
+    <row r="234" spans="1:16">
       <c r="A234" s="5" t="s">
         <v>689</v>
       </c>
@@ -13698,11 +14397,12 @@
       <c r="J234" s="26"/>
       <c r="K234" s="23"/>
       <c r="L234" s="23"/>
-      <c r="M234" s="24"/>
+      <c r="M234" s="23"/>
       <c r="N234" s="24"/>
       <c r="O234" s="24"/>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P234" s="24"/>
+    </row>
+    <row r="235" spans="1:16">
       <c r="A235" s="5" t="s">
         <v>689</v>
       </c>
@@ -13725,11 +14425,12 @@
       <c r="J235" s="26"/>
       <c r="K235" s="23"/>
       <c r="L235" s="23"/>
-      <c r="M235" s="24"/>
+      <c r="M235" s="23"/>
       <c r="N235" s="24"/>
       <c r="O235" s="24"/>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P235" s="24"/>
+    </row>
+    <row r="236" spans="1:16">
       <c r="A236" s="5" t="s">
         <v>690</v>
       </c>
@@ -13752,11 +14453,12 @@
       <c r="J236" s="26"/>
       <c r="K236" s="23"/>
       <c r="L236" s="23"/>
-      <c r="M236" s="24"/>
+      <c r="M236" s="23"/>
       <c r="N236" s="24"/>
       <c r="O236" s="24"/>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P236" s="24"/>
+    </row>
+    <row r="237" spans="1:16">
       <c r="A237" s="5" t="s">
         <v>690</v>
       </c>
@@ -13777,11 +14479,12 @@
       <c r="J237" s="26"/>
       <c r="K237" s="23"/>
       <c r="L237" s="23"/>
-      <c r="M237" s="24"/>
+      <c r="M237" s="23"/>
       <c r="N237" s="24"/>
       <c r="O237" s="24"/>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P237" s="24"/>
+    </row>
+    <row r="238" spans="1:16">
       <c r="A238" s="5" t="s">
         <v>690</v>
       </c>
@@ -13804,12 +14507,13 @@
       <c r="J238" s="26"/>
       <c r="K238" s="23"/>
       <c r="L238" s="23"/>
-      <c r="M238" s="24"/>
+      <c r="M238" s="23"/>
       <c r="N238" s="24"/>
       <c r="O238" s="24"/>
+      <c r="P238" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O124" xr:uid="{3303FF9D-FE10-471F-A726-EF4FBC5C2846}">
+  <autoFilter ref="A1:P145">
     <sortState ref="A2:O124">
       <sortCondition ref="A1:A124"/>
     </sortState>
@@ -13824,7 +14528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0F5D1C-9821-4EBA-841F-2C1F6C52A678}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13834,7 +14538,7 @@
       <selection activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="67" customWidth="1"/>
@@ -15259,7 +15963,7 @@
     <col min="16163" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="20.25">
       <c r="A1" s="92" t="s">
         <v>667</v>
       </c>
@@ -15294,7 +15998,7 @@
       <c r="AD1" s="92"/>
       <c r="AE1" s="35"/>
     </row>
-    <row r="2" spans="1:34" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="12.75">
       <c r="A2" s="36"/>
       <c r="B2" s="37" t="s">
         <v>421</v>
@@ -15367,7 +16071,7 @@
       </c>
       <c r="AE2" s="35"/>
     </row>
-    <row r="3" spans="1:34" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="22.35" customHeight="1">
       <c r="A3" s="39">
         <v>1</v>
       </c>
@@ -15463,7 +16167,7 @@
       <c r="AG3" s="50"/>
       <c r="AH3" s="50"/>
     </row>
-    <row r="4" spans="1:34" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="22.15" customHeight="1">
       <c r="A4" s="39">
         <v>2</v>
       </c>
@@ -15556,7 +16260,7 @@
       </c>
       <c r="AE4" s="35"/>
     </row>
-    <row r="5" spans="1:34" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="22.15" customHeight="1">
       <c r="A5" s="39">
         <v>3</v>
       </c>
@@ -15654,7 +16358,7 @@
       <c r="AG5" s="50"/>
       <c r="AH5" s="50"/>
     </row>
-    <row r="6" spans="1:34" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="22.15" customHeight="1">
       <c r="A6" s="39">
         <v>4</v>
       </c>
@@ -15747,7 +16451,7 @@
       </c>
       <c r="AE6" s="35"/>
     </row>
-    <row r="7" spans="1:34" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="22.15" customHeight="1">
       <c r="A7" s="39">
         <v>5</v>
       </c>
@@ -15845,7 +16549,7 @@
       <c r="AG7" s="59"/>
       <c r="AH7" s="59"/>
     </row>
-    <row r="8" spans="1:34" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="22.15" customHeight="1">
       <c r="A8" s="39">
         <v>6</v>
       </c>
@@ -15938,7 +16642,7 @@
       </c>
       <c r="AE8" s="35"/>
     </row>
-    <row r="9" spans="1:34" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="22.15" customHeight="1">
       <c r="A9" s="39">
         <v>7</v>
       </c>
@@ -16036,7 +16740,7 @@
       <c r="AG9" s="61"/>
       <c r="AH9" s="61"/>
     </row>
-    <row r="10" spans="1:34" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="22.15" customHeight="1">
       <c r="A10" s="39">
         <v>8</v>
       </c>
@@ -16129,7 +16833,7 @@
       </c>
       <c r="AE10" s="35"/>
     </row>
-    <row r="11" spans="1:34" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="22.15" customHeight="1">
       <c r="A11" s="39">
         <v>9</v>
       </c>
@@ -16227,7 +16931,7 @@
       <c r="AG11" s="61"/>
       <c r="AH11" s="61"/>
     </row>
-    <row r="12" spans="1:34" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="22.15" customHeight="1">
       <c r="A12" s="39">
         <v>10</v>
       </c>
@@ -16320,7 +17024,7 @@
       </c>
       <c r="AE12" s="35"/>
     </row>
-    <row r="13" spans="1:34" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="22.15" customHeight="1">
       <c r="A13" s="39">
         <v>11</v>
       </c>
@@ -16418,7 +17122,7 @@
       <c r="AG13" s="59"/>
       <c r="AH13" s="59"/>
     </row>
-    <row r="14" spans="1:34" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="22.15" customHeight="1">
       <c r="A14" s="39">
         <v>12</v>
       </c>
@@ -16507,7 +17211,7 @@
       </c>
       <c r="AE14" s="35"/>
     </row>
-    <row r="15" spans="1:34" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="22.15" customHeight="1">
       <c r="A15" s="39">
         <v>13</v>
       </c>
@@ -16601,7 +17305,7 @@
       <c r="AG15" s="59"/>
       <c r="AH15" s="59"/>
     </row>
-    <row r="16" spans="1:34" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="22.15" customHeight="1">
       <c r="A16" s="39">
         <v>14</v>
       </c>
@@ -16691,7 +17395,7 @@
       <c r="AG16" s="59"/>
       <c r="AH16" s="59"/>
     </row>
-    <row r="17" spans="1:36" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="22.15" customHeight="1">
       <c r="A17" s="39">
         <v>15</v>
       </c>
@@ -16778,7 +17482,7 @@
       </c>
       <c r="AE17" s="35"/>
     </row>
-    <row r="18" spans="1:36" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="22.15" customHeight="1">
       <c r="A18" s="39">
         <v>16</v>
       </c>
@@ -16870,7 +17574,7 @@
       <c r="AG18" s="67"/>
       <c r="AH18" s="67"/>
     </row>
-    <row r="19" spans="1:36" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="22.15" customHeight="1">
       <c r="A19" s="39">
         <v>17</v>
       </c>
@@ -16953,7 +17657,7 @@
       </c>
       <c r="AE19" s="35"/>
     </row>
-    <row r="20" spans="1:36" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="22.15" customHeight="1">
       <c r="A20" s="39">
         <v>18</v>
       </c>
@@ -17039,7 +17743,7 @@
       <c r="AG20" s="67"/>
       <c r="AH20" s="67"/>
     </row>
-    <row r="21" spans="1:36" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="22.15" customHeight="1">
       <c r="A21" s="39">
         <v>19</v>
       </c>
@@ -17112,7 +17816,7 @@
       </c>
       <c r="AE21" s="35"/>
     </row>
-    <row r="22" spans="1:36" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="22.15" customHeight="1">
       <c r="A22" s="39">
         <v>20</v>
       </c>
@@ -17186,7 +17890,7 @@
       <c r="AE22" s="35"/>
       <c r="AF22" s="79"/>
     </row>
-    <row r="23" spans="1:36" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="22.15" customHeight="1">
       <c r="A23" s="39">
         <v>21</v>
       </c>
@@ -17251,7 +17955,7 @@
       </c>
       <c r="AE23" s="35"/>
     </row>
-    <row r="24" spans="1:36" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="22.15" customHeight="1">
       <c r="A24" s="39">
         <v>22</v>
       </c>
@@ -17308,7 +18012,7 @@
       <c r="AD24" s="43"/>
       <c r="AE24" s="35"/>
     </row>
-    <row r="25" spans="1:36" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="22.15" customHeight="1">
       <c r="A25" s="39">
         <v>23</v>
       </c>
@@ -17365,7 +18069,7 @@
       <c r="AD25" s="78"/>
       <c r="AE25" s="35"/>
     </row>
-    <row r="26" spans="1:36" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="22.15" customHeight="1">
       <c r="A26" s="39">
         <v>24</v>
       </c>
@@ -17416,7 +18120,7 @@
       <c r="AD26" s="43"/>
       <c r="AE26" s="35"/>
     </row>
-    <row r="27" spans="1:36" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="22.15" customHeight="1">
       <c r="A27" s="70"/>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
@@ -17455,7 +18159,7 @@
       <c r="AD27" s="43"/>
       <c r="AE27" s="35"/>
     </row>
-    <row r="28" spans="1:36" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="22.15" customHeight="1">
       <c r="A28" s="39" t="s">
         <v>646</v>
       </c>
@@ -17520,7 +18224,7 @@
       <c r="AD28" s="43"/>
       <c r="AE28" s="35"/>
     </row>
-    <row r="29" spans="1:36" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="12.75">
       <c r="A29" s="72"/>
       <c r="B29" s="50"/>
       <c r="C29" s="50"/>
@@ -17558,7 +18262,7 @@
       <c r="AI29" s="73"/>
       <c r="AJ29" s="73"/>
     </row>
-    <row r="30" spans="1:36" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="25.5" customHeight="1">
       <c r="B30" s="74"/>
       <c r="C30" s="74"/>
       <c r="P30" s="76"/>
@@ -17566,13 +18270,13 @@
       <c r="R30" s="59"/>
       <c r="S30" s="59"/>
     </row>
-    <row r="31" spans="1:36" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="25.5" customHeight="1">
       <c r="B31" s="50"/>
       <c r="C31" s="50"/>
       <c r="D31" s="76"/>
       <c r="S31" s="59"/>
     </row>
-    <row r="32" spans="1:36" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:36" ht="25.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:AD1"/>
